--- a/analysis/results/Q3/univariate_analysis/supplements_significant_taxa_colon.xlsx
+++ b/analysis/results/Q3/univariate_analysis/supplements_significant_taxa_colon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">SeqID</t>
   </si>
@@ -31,22 +31,10 @@
     <t xml:space="preserve">padj</t>
   </si>
   <si>
-    <t xml:space="preserve">TGGGGAATATTGCACAATGGGGGAAACCCTGATGCAGCGACGCCGCGTGAGTGAAGAAGTATTTCGGTATGTAAAGCTCTATCAGCAGGGAAGAAAATGACGGTACCTGACTAAGAAGCCCCGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGGGGCAAGCGTTATCCGGATTTACTGGGTGTAAAGGGAGCGTAGACGGTAAAGCAAGTCTGAAGTGAAAGCCCGGGGCTCAACCCCGGGACTGCTTTGGAAACTGTTTAACTAGAGTGCTGGAGAGGTAAGCGGAATTCCTAGTGTAGCGGTGAAATGCGTAGATATTAGGAGGAACACCAGTGGCGAAGGCGGCTTACTGGACAGTAACTGACGTTGAGGCTCGAAAGCGTGGGGAGCAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Lachnoclostridium;s__unassigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAGGAATATTGGTCAATGGACGCAAGTCTGAACCAGCCATGCCGCGTGCAGGATGACGGCTCTATGAGTTGTAAACTGCTTTTGTACGAGGGTAAACCCGGATACGTGTATCCGGCTGAAAGTATCGTACGAATAAGGATCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGATTCAAGCGTTATCCGGATTTATTGGGTTTAAAGGGTGCGTAGGCGGTTTGATAAGTTAGAGGTGAAATACCGGTGCTTAACACCGGAACTGCCTCTAATACTGTTGAGCTAGAGAGTAGTTGCGGTAGGCGGAATGTATGGTGTAGCGGTGAAATGCTTAGAGATCATACAGAACACCGATTGCGAAGGCAGCTTACCAAACTATATCTGACGTTGAGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Rikenellaceae;g__Alistipes;s__unassigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGGGGGATATTGCACAATGGGGGAAACCCTGATGCAGCGATGCCGCGTGGAGGAAGAAGGTTTTCGGATTGTAAACTCCTGTCGTAAGGGAAGAGGAAGGACTGTACCTTACAAGAAAGCTCCGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGGAGCGAGCGTTGTCCGGAATGACTGGGTGTAAAGGGAGCGTAGGCGGGATGGCAAGTCAGATGTGAAACCTGAGGGCTCAACCTTCAGACTGCATTTGAAACTGCTGTTCTTGAGTGAAGTAGAGGTAAGCGGAATTCCTGGTGTAGCGGTGAAATGCGTAGAGATCAGGAGGAACATCGGTGGCGAAGGCGGCTTACTGGGCTTTTACTGACGCTGAGGCTCGAAAGCGTGGGGAGCAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Ruminococcus;s__unassigned</t>
+    <t xml:space="preserve">TGAGGAATATTGGTCAATGGGCGAGAGCCTGAACCAGCCAAGTAGCGTGAAGGATGACTGCCCTATGGGTTGTAAACTTCTTTTATAAAGGAATAAAGTCGGGTATGTATACCCGTTTGCATGTACTTTATGAATAAGGATCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGATCCGAGCGTTATCCGGATTTATTGGGTTTAAAGGGAGCGTAGATGGATGTTTAAGTCAGTTGTGAAAGTTTGCGGCTCAACCGTAAAATTGCAGTTGATACTGGATATCTTGAGTGCAGTTGAGGCAGGCGGAATTCGTGGTGTAGCGGTGAAATGCTTAGATATCACGAAGAACTCCGATTGCGAAGGCAGCCTGCTAAGCTGCAACTGACATTGAGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Bacteroidaceae;g__Bacteroides;s__unassigned</t>
   </si>
 </sst>
 </file>
@@ -434,47 +422,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.95645575216202</v>
+        <v>4.01807717846687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000382125216477661</v>
+        <v>0.000000000024330427789158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0270544653266184</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.37835134151552</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00000000166314857362164</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.000000588754595062062</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.32811539661514</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.000129786961137298</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0153148614142011</v>
+        <v>0.00000000744511090348234</v>
       </c>
     </row>
   </sheetData>
